--- a/data/migraines-2024Jan.xlsx
+++ b/data/migraines-2024Jan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="298">
   <si>
     <t>date</t>
   </si>
@@ -31,24 +31,24 @@
     <t>comment</t>
   </si>
   <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
     <t>Thu</t>
   </si>
   <si>
     <t>Fri</t>
   </si>
   <si>
-    <t>Tue</t>
-  </si>
-  <si>
     <t>Sat</t>
   </si>
   <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
     <t>Sun</t>
   </si>
   <si>
@@ -257,6 +257,18 @@
   </si>
   <si>
     <t>2018-08</t>
+  </si>
+  <si>
+    <t>Migraine came on in the evening, perhaps as a consequence of concentrating somewhat harder than usual at work. perhaps in part a return of previous days.</t>
+  </si>
+  <si>
+    <t>migraine came on gradually during the morning. Perhaps a consequence of having richer food (more red meat) than usual last night. Took ST at 12:30 after finding a red bull and some paracetamol didn’t help much.</t>
+  </si>
+  <si>
+    <t>Migraine started coming back shortly after I got up. Took ST at 7am.</t>
+  </si>
+  <si>
+    <t>Awoke with sharp headache and took ST at 5am. probably triggered by running the day before. Muscle soreness noted.</t>
   </si>
   <si>
     <t>Bad migraine in early morning, perhaps related the stopping propranolol a few days earlier (resuming topiramate). Took ST at 6am then again at 9am.</t>
@@ -1257,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:F263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1282,10 +1294,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B2" s="2">
-        <v>45330</v>
+        <v>45343</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1296,13 +1308,16 @@
       <c r="E2" t="s">
         <v>19</v>
       </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B3" s="2">
-        <v>45324</v>
+        <v>45342</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1313,16 +1328,13 @@
       <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B4" s="2">
-        <v>45314</v>
+        <v>45341</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1331,7 +1343,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>82</v>
@@ -1339,19 +1351,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B5" s="2">
-        <v>45310</v>
+        <v>45336</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
@@ -1359,27 +1371,30 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B6" s="2">
-        <v>45309</v>
+        <v>45335</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B7" s="2">
-        <v>45304</v>
+        <v>45330</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1388,35 +1403,38 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B8" s="2">
-        <v>45295</v>
+        <v>45324</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B9" s="2">
-        <v>45294</v>
+        <v>45314</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1424,133 +1442,124 @@
       <c r="E9" t="s">
         <v>20</v>
       </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B10" s="2">
-        <v>45280</v>
+        <v>45310</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B11" s="2">
-        <v>45279</v>
+        <v>45309</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B12" s="2">
-        <v>45276</v>
+        <v>45304</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B13" s="2">
-        <v>45272</v>
+        <v>45295</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B14" s="2">
-        <v>45251</v>
+        <v>45294</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B15" s="2">
-        <v>45240</v>
+        <v>45280</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B16" s="2">
-        <v>45233</v>
+        <v>45279</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -1559,95 +1568,98 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B17" s="2">
-        <v>45219</v>
+        <v>45276</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B18" s="2">
-        <v>45217</v>
+        <v>45272</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B19" s="2">
-        <v>45215</v>
+        <v>45251</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B20" s="2">
-        <v>45201</v>
+        <v>45240</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B21" s="2">
-        <v>45196</v>
+        <v>45233</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -1656,7 +1668,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>94</v>
@@ -1664,96 +1676,96 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B22" s="2">
-        <v>45195</v>
+        <v>45219</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B23" s="2">
-        <v>45194</v>
+        <v>45217</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2">
-        <v>45176</v>
+        <v>45215</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2">
-        <v>45168</v>
+        <v>45201</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B26" s="2">
-        <v>45159</v>
+        <v>45196</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" t="s">
         <v>98</v>
@@ -1761,10 +1773,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B27" s="2">
-        <v>45149</v>
+        <v>45195</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1773,124 +1785,124 @@
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2">
-        <v>45141</v>
+        <v>45194</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B29" s="2">
-        <v>45135</v>
+        <v>45176</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2">
-        <v>45118</v>
+        <v>45168</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2">
-        <v>45112</v>
+        <v>45159</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2">
-        <v>45104</v>
+        <v>45149</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B33" s="2">
-        <v>45099</v>
+        <v>45141</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s">
         <v>104</v>
@@ -1898,10 +1910,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B34" s="2">
-        <v>45098</v>
+        <v>45135</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -1910,52 +1922,58 @@
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B35" s="2">
-        <v>45089</v>
+        <v>45118</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B36" s="2">
-        <v>45087</v>
+        <v>45112</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B37" s="2">
-        <v>45086</v>
+        <v>45104</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1969,104 +1987,101 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B38" s="2">
-        <v>45070</v>
+        <v>45099</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="B39" s="2">
-        <v>45058</v>
+        <v>45098</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B40" s="2">
-        <v>45050</v>
+        <v>45089</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="B41" s="2">
-        <v>45034</v>
+        <v>45087</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B42" s="2">
-        <v>45015</v>
+        <v>45086</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B43" s="2">
-        <v>44994</v>
+        <v>45070</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2075,15 +2090,15 @@
         <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="B44" s="2">
-        <v>44993</v>
+        <v>45058</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -2092,55 +2107,55 @@
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B45" s="2">
-        <v>44992</v>
+        <v>45050</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="B46" s="2">
-        <v>44975</v>
+        <v>45034</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B47" s="2">
-        <v>44961</v>
+        <v>45015</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
@@ -2149,47 +2164,44 @@
         <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B48" s="2">
-        <v>44956</v>
+        <v>44994</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B49" s="2">
-        <v>44951</v>
+        <v>44993</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F49" t="s">
         <v>113</v>
@@ -2197,361 +2209,358 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B50" s="2">
-        <v>44935</v>
+        <v>44992</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B51" s="2">
-        <v>44930</v>
+        <v>44975</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
         <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B52" s="2">
-        <v>44917</v>
+        <v>44961</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="F52" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B53" s="2">
-        <v>44916</v>
+        <v>44956</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="F53" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B54" s="2">
-        <v>44915</v>
+        <v>44951</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="F54" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B55" s="2">
-        <v>44907</v>
+        <v>44935</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B56" s="2">
-        <v>44896</v>
+        <v>44930</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B57" s="2">
-        <v>44889</v>
+        <v>44917</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B58" s="2">
-        <v>44878</v>
+        <v>44916</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B59" s="2">
-        <v>44872</v>
+        <v>44915</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B60" s="2">
-        <v>44861</v>
+        <v>44907</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B61" s="2">
-        <v>44851</v>
+        <v>44896</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B62" s="2">
-        <v>44841</v>
+        <v>44889</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B63" s="2">
-        <v>44831</v>
+        <v>44878</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B64" s="2">
-        <v>44826</v>
+        <v>44872</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B65" s="2">
-        <v>44823</v>
+        <v>44861</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B66" s="2">
-        <v>44819</v>
+        <v>44851</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B67" s="2">
-        <v>44813</v>
+        <v>44841</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B68" s="2">
-        <v>44799</v>
+        <v>44831</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -2560,104 +2569,107 @@
         <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B69" s="2">
-        <v>44795</v>
+        <v>44826</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B70" s="2">
-        <v>44786</v>
+        <v>44823</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B71" s="2">
-        <v>44783</v>
+        <v>44819</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B72" s="2">
-        <v>44780</v>
+        <v>44813</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="F72" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B73" s="2">
-        <v>44772</v>
+        <v>44799</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
         <v>133</v>
@@ -2665,19 +2677,19 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B74" s="2">
-        <v>44766</v>
+        <v>44795</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
         <v>134</v>
@@ -2685,19 +2697,19 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B75" s="2">
-        <v>44754</v>
+        <v>44786</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
         <v>135</v>
@@ -2705,19 +2717,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B76" s="2">
-        <v>44745</v>
+        <v>44783</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
         <v>136</v>
@@ -2725,67 +2737,67 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B77" s="2">
-        <v>44732</v>
+        <v>44780</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
         <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
-      </c>
-      <c r="F77" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B78" s="2">
-        <v>44729</v>
+        <v>44772</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B79" s="2">
-        <v>44718</v>
+        <v>44766</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="F79" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B80" s="2">
-        <v>44701</v>
+        <v>44754</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -2794,7 +2806,7 @@
         <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
         <v>139</v>
@@ -2802,19 +2814,19 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B81" s="2">
-        <v>44687</v>
+        <v>44745</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F81" t="s">
         <v>140</v>
@@ -2822,321 +2834,318 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B82" s="2">
-        <v>44671</v>
+        <v>44732</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
         <v>14</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="F82" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B83" s="2">
-        <v>44667</v>
+        <v>44729</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="F83" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B84" s="2">
-        <v>44666</v>
+        <v>44718</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B85" s="2">
-        <v>44665</v>
+        <v>44701</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
         <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="F85" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B86" s="2">
-        <v>44659</v>
+        <v>44687</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B87" s="2">
-        <v>44632</v>
+        <v>44671</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>42</v>
-      </c>
-      <c r="F87" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B88" s="2">
-        <v>44615</v>
+        <v>44667</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
-      </c>
-      <c r="F88" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B89" s="2">
-        <v>44610</v>
+        <v>44666</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
-      </c>
-      <c r="F89" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B90" s="2">
-        <v>44601</v>
+        <v>44665</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
-      </c>
-      <c r="F90" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B91" s="2">
-        <v>44597</v>
+        <v>44659</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B92" s="2">
-        <v>44596</v>
+        <v>44632</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B93" s="2">
-        <v>44590</v>
+        <v>44615</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B94" s="2">
-        <v>44588</v>
+        <v>44610</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B95" s="2">
-        <v>44584</v>
+        <v>44601</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B96" s="2">
-        <v>44583</v>
+        <v>44597</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B97" s="2">
-        <v>44579</v>
+        <v>44596</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B98" s="2">
-        <v>44576</v>
+        <v>44590</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
@@ -3144,16 +3153,19 @@
       <c r="E98" t="s">
         <v>44</v>
       </c>
+      <c r="F98" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B99" s="2">
-        <v>44575</v>
+        <v>44588</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
         <v>14</v>
@@ -3161,13 +3173,16 @@
       <c r="E99" t="s">
         <v>44</v>
       </c>
+      <c r="F99" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B100" s="2">
-        <v>44570</v>
+        <v>44584</v>
       </c>
       <c r="C100" t="s">
         <v>11</v>
@@ -3179,18 +3194,18 @@
         <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B101" s="2">
-        <v>44569</v>
+        <v>44583</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
@@ -3199,161 +3214,158 @@
         <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B102" s="2">
-        <v>44561</v>
+        <v>44579</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B103" s="2">
-        <v>44560</v>
+        <v>44576</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E103" t="s">
-        <v>45</v>
-      </c>
-      <c r="F103" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B104" s="2">
-        <v>44551</v>
+        <v>44575</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>45</v>
-      </c>
-      <c r="F104" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B105" s="2">
-        <v>44550</v>
+        <v>44570</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B106" s="2">
-        <v>44534</v>
+        <v>44569</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B107" s="2">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
         <v>15</v>
       </c>
       <c r="E107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B108" s="2">
-        <v>44523</v>
+        <v>44560</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D108" t="s">
         <v>15</v>
       </c>
       <c r="E108" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="F108" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B109" s="2">
-        <v>44518</v>
+        <v>44551</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
         <v>161</v>
@@ -3361,47 +3373,53 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B110" s="2">
-        <v>44513</v>
+        <v>44550</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
       </c>
       <c r="E110" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="F110" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B111" s="2">
-        <v>44510</v>
+        <v>44534</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
         <v>15</v>
       </c>
       <c r="E111" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="F111" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B112" s="2">
-        <v>44509</v>
+        <v>44530</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
@@ -3409,16 +3427,19 @@
       <c r="E112" t="s">
         <v>46</v>
       </c>
+      <c r="F112" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B113" s="2">
-        <v>44508</v>
+        <v>44523</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D113" t="s">
         <v>15</v>
@@ -3429,13 +3450,13 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B114" s="2">
-        <v>44507</v>
+        <v>44518</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D114" t="s">
         <v>15</v>
@@ -3443,16 +3464,19 @@
       <c r="E114" t="s">
         <v>46</v>
       </c>
+      <c r="F114" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B115" s="2">
-        <v>44506</v>
+        <v>44513</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
@@ -3463,113 +3487,98 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B116" s="2">
-        <v>44499</v>
+        <v>44510</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>47</v>
-      </c>
-      <c r="F116" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B117" s="2">
-        <v>44494</v>
+        <v>44509</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D117" t="s">
         <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
-      </c>
-      <c r="F117" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2">
-        <v>44487</v>
+        <v>44508</v>
       </c>
       <c r="C118" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
       </c>
       <c r="E118" t="s">
-        <v>47</v>
-      </c>
-      <c r="F118" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2">
-        <v>44481</v>
+        <v>44507</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D119" t="s">
         <v>15</v>
       </c>
       <c r="E119" t="s">
-        <v>47</v>
-      </c>
-      <c r="F119" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B120" s="2">
-        <v>44476</v>
+        <v>44506</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
         <v>15</v>
       </c>
       <c r="E120" t="s">
-        <v>47</v>
-      </c>
-      <c r="F120" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B121" s="2">
-        <v>44471</v>
+        <v>44499</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
         <v>15</v>
@@ -3578,95 +3587,95 @@
         <v>47</v>
       </c>
       <c r="F121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B122" s="2">
-        <v>44466</v>
+        <v>44494</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
       </c>
       <c r="E122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B123" s="2">
-        <v>44464</v>
+        <v>44487</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D123" t="s">
         <v>15</v>
       </c>
       <c r="E123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B124" s="2">
-        <v>44460</v>
+        <v>44481</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
         <v>15</v>
       </c>
       <c r="E124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F124" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B125" s="2">
-        <v>44456</v>
+        <v>44476</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
         <v>15</v>
       </c>
       <c r="E125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F125" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B126" s="2">
-        <v>44452</v>
+        <v>44471</v>
       </c>
       <c r="C126" t="s">
         <v>10</v>
@@ -3675,21 +3684,21 @@
         <v>15</v>
       </c>
       <c r="E126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F126" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B127" s="2">
-        <v>44445</v>
+        <v>44466</v>
       </c>
       <c r="C127" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
@@ -3698,155 +3707,155 @@
         <v>48</v>
       </c>
       <c r="F127" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2">
-        <v>44432</v>
+        <v>44464</v>
       </c>
       <c r="C128" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
       </c>
       <c r="E128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F128" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2">
-        <v>44431</v>
+        <v>44460</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D129" t="s">
         <v>15</v>
       </c>
       <c r="E129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F129" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>44418</v>
+        <v>44456</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
         <v>15</v>
       </c>
       <c r="E130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F130" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2">
-        <v>44417</v>
+        <v>44452</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D131" t="s">
         <v>15</v>
       </c>
       <c r="E131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F131" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>44408</v>
+        <v>44445</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D132" t="s">
         <v>15</v>
       </c>
       <c r="E132" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F132" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B133" s="2">
-        <v>44403</v>
+        <v>44432</v>
       </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D133" t="s">
         <v>15</v>
       </c>
       <c r="E133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B134" s="2">
-        <v>44394</v>
+        <v>44431</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D134" t="s">
         <v>15</v>
       </c>
       <c r="E134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F134" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B135" s="2">
-        <v>44386</v>
+        <v>44418</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
@@ -3855,18 +3864,18 @@
         <v>15</v>
       </c>
       <c r="E135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F135" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B136" s="2">
-        <v>44376</v>
+        <v>44417</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
@@ -3875,118 +3884,118 @@
         <v>15</v>
       </c>
       <c r="E136" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F136" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B137" s="2">
-        <v>44371</v>
+        <v>44408</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
         <v>15</v>
       </c>
       <c r="E137" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F137" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B138" s="2">
-        <v>44360</v>
+        <v>44403</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D138" t="s">
         <v>15</v>
       </c>
       <c r="E138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F138" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B139" s="2">
-        <v>44349</v>
+        <v>44394</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
         <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F139" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B140" s="2">
-        <v>44348</v>
+        <v>44386</v>
       </c>
       <c r="C140" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
         <v>15</v>
       </c>
       <c r="E140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F140" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B141" s="2">
-        <v>44345</v>
+        <v>44376</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D141" t="s">
         <v>15</v>
       </c>
       <c r="E141" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F141" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B142" s="2">
-        <v>44331</v>
+        <v>44371</v>
       </c>
       <c r="C142" t="s">
         <v>8</v>
@@ -3995,38 +4004,38 @@
         <v>15</v>
       </c>
       <c r="E142" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F142" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B143" s="2">
-        <v>44330</v>
+        <v>44360</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
         <v>15</v>
       </c>
       <c r="E143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F143" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B144" s="2">
-        <v>44329</v>
+        <v>44349</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4035,38 +4044,38 @@
         <v>15</v>
       </c>
       <c r="E144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F144" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B145" s="2">
-        <v>44324</v>
+        <v>44348</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D145" t="s">
         <v>15</v>
       </c>
       <c r="E145" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F145" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B146" s="2">
-        <v>44319</v>
+        <v>44345</v>
       </c>
       <c r="C146" t="s">
         <v>10</v>
@@ -4078,55 +4087,55 @@
         <v>52</v>
       </c>
       <c r="F146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B147" s="2">
-        <v>44275</v>
+        <v>44331</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
         <v>15</v>
       </c>
       <c r="E147" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F147" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B148" s="2">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="C148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
         <v>15</v>
       </c>
       <c r="E148" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F148" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B149" s="2">
-        <v>44268</v>
+        <v>44329</v>
       </c>
       <c r="C149" t="s">
         <v>8</v>
@@ -4135,269 +4144,269 @@
         <v>15</v>
       </c>
       <c r="E149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F149" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B150" s="2">
-        <v>44265</v>
+        <v>44324</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
         <v>15</v>
       </c>
       <c r="E150" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="F150" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B151" s="2">
-        <v>44259</v>
+        <v>44319</v>
       </c>
       <c r="C151" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
       </c>
       <c r="E151" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="F151" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B152" s="2">
-        <v>44254</v>
+        <v>44275</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
         <v>15</v>
       </c>
       <c r="E152" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="F152" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B153" s="2">
-        <v>44225</v>
+        <v>44270</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D153" t="s">
         <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F153" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B154" s="2">
-        <v>44219</v>
+        <v>44268</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
         <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F154" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B155" s="2">
-        <v>44214</v>
+        <v>44265</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D155" t="s">
         <v>15</v>
       </c>
       <c r="E155" t="s">
-        <v>55</v>
-      </c>
-      <c r="F155" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B156" s="2">
-        <v>44209</v>
+        <v>44259</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D156" t="s">
         <v>15</v>
       </c>
       <c r="E156" t="s">
-        <v>55</v>
-      </c>
-      <c r="F156" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B157" s="2">
-        <v>44201</v>
+        <v>44254</v>
       </c>
       <c r="C157" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
         <v>15</v>
       </c>
       <c r="E157" t="s">
-        <v>55</v>
-      </c>
-      <c r="F157" t="s">
-        <v>200</v>
+        <v>54</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B158" s="2">
-        <v>44195</v>
+        <v>44225</v>
       </c>
       <c r="C158" t="s">
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F158" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B159" s="2">
-        <v>44192</v>
+        <v>44219</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E159" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F159" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B160" s="2">
-        <v>44191</v>
+        <v>44214</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E160" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F160" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B161" s="2">
-        <v>44190</v>
+        <v>44209</v>
       </c>
       <c r="C161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E161" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B162" s="2">
-        <v>44174</v>
+        <v>44201</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E162" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F162" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B163" s="2">
-        <v>44168</v>
+        <v>44195</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4409,55 +4418,55 @@
         <v>56</v>
       </c>
       <c r="F163" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B164" s="2">
-        <v>44155</v>
+        <v>44192</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D164" t="s">
         <v>16</v>
       </c>
       <c r="E164" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F164" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B165" s="2">
-        <v>44154</v>
+        <v>44191</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
         <v>16</v>
       </c>
       <c r="E165" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F165" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B166" s="2">
-        <v>44146</v>
+        <v>44190</v>
       </c>
       <c r="C166" t="s">
         <v>9</v>
@@ -4466,161 +4475,161 @@
         <v>16</v>
       </c>
       <c r="E166" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F166" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B167" s="2">
-        <v>44141</v>
+        <v>44174</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D167" t="s">
         <v>16</v>
       </c>
       <c r="E167" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F167" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B168" s="2">
-        <v>44136</v>
+        <v>44168</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D168" t="s">
         <v>16</v>
       </c>
       <c r="E168" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F168" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B169" s="2">
-        <v>44134</v>
+        <v>44155</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
         <v>16</v>
       </c>
       <c r="E169" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F169" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B170" s="2">
-        <v>44129</v>
+        <v>44154</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D170" t="s">
         <v>16</v>
       </c>
       <c r="E170" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F170" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B171" s="2">
-        <v>44125</v>
+        <v>44146</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D171" t="s">
         <v>16</v>
       </c>
       <c r="E171" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F171" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B172" s="2">
-        <v>44119</v>
+        <v>44141</v>
       </c>
       <c r="C172" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
         <v>16</v>
       </c>
       <c r="E172" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F172" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B173" s="2">
-        <v>44111</v>
+        <v>44136</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D173" t="s">
         <v>16</v>
       </c>
       <c r="E173" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F173" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B174" s="2">
-        <v>44110</v>
+        <v>44134</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
         <v>16</v>
@@ -4629,95 +4638,95 @@
         <v>58</v>
       </c>
       <c r="F174" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B175" s="2">
-        <v>44084</v>
+        <v>44129</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D175" t="s">
         <v>16</v>
       </c>
       <c r="E175" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F175" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B176" s="2">
-        <v>44079</v>
+        <v>44125</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D176" t="s">
         <v>16</v>
       </c>
       <c r="E176" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F176" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B177" s="2">
-        <v>44069</v>
+        <v>44119</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D177" t="s">
         <v>16</v>
       </c>
       <c r="E177" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F177" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B178" s="2">
-        <v>44064</v>
+        <v>44111</v>
       </c>
       <c r="C178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D178" t="s">
         <v>16</v>
       </c>
       <c r="E178" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F178" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B179" s="2">
-        <v>44043</v>
+        <v>44110</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
@@ -4726,58 +4735,58 @@
         <v>16</v>
       </c>
       <c r="E179" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F179" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B180" s="2">
-        <v>44033</v>
+        <v>44084</v>
       </c>
       <c r="C180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D180" t="s">
         <v>16</v>
       </c>
       <c r="E180" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F180" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B181" s="2">
-        <v>44029</v>
+        <v>44079</v>
       </c>
       <c r="C181" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
         <v>16</v>
       </c>
       <c r="E181" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F181" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B182" s="2">
-        <v>44028</v>
+        <v>44069</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4786,18 +4795,18 @@
         <v>16</v>
       </c>
       <c r="E182" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F182" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B183" s="2">
-        <v>44020</v>
+        <v>44064</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
@@ -4806,21 +4815,21 @@
         <v>16</v>
       </c>
       <c r="E183" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F183" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B184" s="2">
-        <v>44019</v>
+        <v>44043</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
         <v>16</v>
@@ -4829,15 +4838,15 @@
         <v>61</v>
       </c>
       <c r="F184" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B185" s="2">
-        <v>43931</v>
+        <v>44033</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
@@ -4846,35 +4855,38 @@
         <v>16</v>
       </c>
       <c r="E185" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F185" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B186" s="2">
-        <v>43918</v>
+        <v>44029</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
         <v>16</v>
       </c>
       <c r="E186" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="F186" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B187" s="2">
-        <v>43897</v>
+        <v>44028</v>
       </c>
       <c r="C187" t="s">
         <v>8</v>
@@ -4883,7 +4895,7 @@
         <v>16</v>
       </c>
       <c r="E187" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F187" t="s">
         <v>229</v>
@@ -4891,19 +4903,19 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B188" s="2">
-        <v>43887</v>
+        <v>44020</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D188" t="s">
         <v>16</v>
       </c>
       <c r="E188" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F188" t="s">
         <v>230</v>
@@ -4911,19 +4923,19 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B189" s="2">
-        <v>43864</v>
+        <v>44019</v>
       </c>
       <c r="C189" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D189" t="s">
         <v>16</v>
       </c>
       <c r="E189" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F189" t="s">
         <v>231</v>
@@ -4931,19 +4943,19 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B190" s="2">
-        <v>43863</v>
+        <v>43931</v>
       </c>
       <c r="C190" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
         <v>16</v>
       </c>
       <c r="E190" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F190" t="s">
         <v>232</v>
@@ -4951,193 +4963,190 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B191" s="2">
-        <v>43859</v>
+        <v>43918</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
         <v>16</v>
       </c>
       <c r="E191" t="s">
-        <v>65</v>
-      </c>
-      <c r="F191" t="s">
-        <v>233</v>
+        <v>63</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B192" s="2">
-        <v>43854</v>
+        <v>43897</v>
       </c>
       <c r="C192" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
         <v>16</v>
       </c>
       <c r="E192" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F192" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B193" s="2">
-        <v>43837</v>
+        <v>43887</v>
       </c>
       <c r="C193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D193" t="s">
         <v>16</v>
       </c>
       <c r="E193" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F193" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B194" s="2">
-        <v>43833</v>
+        <v>43864</v>
       </c>
       <c r="C194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D194" t="s">
         <v>16</v>
       </c>
       <c r="E194" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F194" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B195" s="2">
-        <v>43830</v>
+        <v>43863</v>
       </c>
       <c r="C195" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E195" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F195" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B196" s="2">
-        <v>43827</v>
+        <v>43859</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E196" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F196" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B197" s="2">
-        <v>43823</v>
+        <v>43854</v>
       </c>
       <c r="C197" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E197" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F197" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B198" s="2">
-        <v>43822</v>
+        <v>43837</v>
       </c>
       <c r="C198" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E198" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F198" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B199" s="2">
-        <v>43820</v>
+        <v>43833</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E199" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F199" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B200" s="2">
-        <v>43815</v>
+        <v>43830</v>
       </c>
       <c r="C200" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D200" t="s">
         <v>17</v>
@@ -5146,18 +5155,18 @@
         <v>66</v>
       </c>
       <c r="F200" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B201" s="2">
-        <v>43810</v>
+        <v>43827</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
         <v>17</v>
@@ -5166,18 +5175,18 @@
         <v>66</v>
       </c>
       <c r="F201" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B202" s="2">
-        <v>43809</v>
+        <v>43823</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D202" t="s">
         <v>17</v>
@@ -5186,18 +5195,18 @@
         <v>66</v>
       </c>
       <c r="F202" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B203" s="2">
-        <v>43803</v>
+        <v>43822</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D203" t="s">
         <v>17</v>
@@ -5206,55 +5215,55 @@
         <v>66</v>
       </c>
       <c r="F203" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B204" s="2">
-        <v>43799</v>
+        <v>43820</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
         <v>17</v>
       </c>
       <c r="E204" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F204" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B205" s="2">
-        <v>43796</v>
+        <v>43815</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D205" t="s">
         <v>17</v>
       </c>
       <c r="E205" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F205" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B206" s="2">
-        <v>43790</v>
+        <v>43810</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5263,61 +5272,61 @@
         <v>17</v>
       </c>
       <c r="E206" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F206" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B207" s="2">
-        <v>43789</v>
+        <v>43809</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D207" t="s">
         <v>17</v>
       </c>
       <c r="E207" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F207" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B208" s="2">
-        <v>43784</v>
+        <v>43803</v>
       </c>
       <c r="C208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D208" t="s">
         <v>17</v>
       </c>
       <c r="E208" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F208" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B209" s="2">
-        <v>43781</v>
+        <v>43799</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
         <v>17</v>
@@ -5325,16 +5334,19 @@
       <c r="E209" t="s">
         <v>67</v>
       </c>
+      <c r="F209" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B210" s="2">
-        <v>43775</v>
+        <v>43796</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D210" t="s">
         <v>17</v>
@@ -5348,13 +5360,13 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B211" s="2">
-        <v>43770</v>
+        <v>43790</v>
       </c>
       <c r="C211" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D211" t="s">
         <v>17</v>
@@ -5368,19 +5380,19 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B212" s="2">
-        <v>43764</v>
+        <v>43789</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D212" t="s">
         <v>17</v>
       </c>
       <c r="E212" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F212" t="s">
         <v>253</v>
@@ -5388,19 +5400,19 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B213" s="2">
-        <v>43742</v>
+        <v>43784</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
         <v>17</v>
       </c>
       <c r="E213" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F213" t="s">
         <v>254</v>
@@ -5408,30 +5420,27 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B214" s="2">
-        <v>43741</v>
+        <v>43781</v>
       </c>
       <c r="C214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D214" t="s">
         <v>17</v>
       </c>
       <c r="E214" t="s">
-        <v>68</v>
-      </c>
-      <c r="F214" t="s">
-        <v>255</v>
+        <v>67</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B215" s="2">
-        <v>43734</v>
+        <v>43775</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5440,18 +5449,18 @@
         <v>17</v>
       </c>
       <c r="E215" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F215" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B216" s="2">
-        <v>43733</v>
+        <v>43770</v>
       </c>
       <c r="C216" t="s">
         <v>9</v>
@@ -5460,18 +5469,18 @@
         <v>17</v>
       </c>
       <c r="E216" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F216" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B217" s="2">
-        <v>43724</v>
+        <v>43764</v>
       </c>
       <c r="C217" t="s">
         <v>10</v>
@@ -5480,38 +5489,38 @@
         <v>17</v>
       </c>
       <c r="E217" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F217" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="1">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B218" s="2">
-        <v>43720</v>
+        <v>43742</v>
       </c>
       <c r="C218" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
         <v>17</v>
       </c>
       <c r="E218" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F218" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="1">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B219" s="2">
-        <v>43715</v>
+        <v>43741</v>
       </c>
       <c r="C219" t="s">
         <v>8</v>
@@ -5520,118 +5529,118 @@
         <v>17</v>
       </c>
       <c r="E219" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F219" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="1">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B220" s="2">
-        <v>43685</v>
+        <v>43734</v>
       </c>
       <c r="C220" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D220" t="s">
         <v>17</v>
       </c>
       <c r="E220" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F220" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B221" s="2">
-        <v>43677</v>
+        <v>43733</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D221" t="s">
         <v>17</v>
       </c>
       <c r="E221" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F221" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B222" s="2">
-        <v>43645</v>
+        <v>43724</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D222" t="s">
         <v>17</v>
       </c>
       <c r="E222" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F222" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B223" s="2">
-        <v>43644</v>
+        <v>43720</v>
       </c>
       <c r="C223" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D223" t="s">
         <v>17</v>
       </c>
       <c r="E223" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F223" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="1">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B224" s="2">
-        <v>43630</v>
+        <v>43715</v>
       </c>
       <c r="C224" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D224" t="s">
         <v>17</v>
       </c>
       <c r="E224" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F224" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="1">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B225" s="2">
-        <v>43624</v>
+        <v>43685</v>
       </c>
       <c r="C225" t="s">
         <v>8</v>
@@ -5640,41 +5649,41 @@
         <v>17</v>
       </c>
       <c r="E225" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F225" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B226" s="2">
-        <v>43623</v>
+        <v>43677</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D226" t="s">
         <v>17</v>
       </c>
       <c r="E226" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F226" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B227" s="2">
-        <v>43618</v>
+        <v>43645</v>
       </c>
       <c r="C227" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D227" t="s">
         <v>17</v>
@@ -5683,41 +5692,44 @@
         <v>72</v>
       </c>
       <c r="F227" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B228" s="2">
-        <v>43616</v>
+        <v>43644</v>
       </c>
       <c r="C228" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
         <v>17</v>
       </c>
       <c r="E228" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="F228" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B229" s="2">
-        <v>43609</v>
+        <v>43630</v>
       </c>
       <c r="C229" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
         <v>17</v>
       </c>
       <c r="E229" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F229" t="s">
         <v>269</v>
@@ -5725,47 +5737,50 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B230" s="2">
-        <v>43603</v>
+        <v>43624</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D230" t="s">
         <v>17</v>
       </c>
       <c r="E230" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="F230" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B231" s="2">
-        <v>43596</v>
+        <v>43623</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
         <v>17</v>
       </c>
       <c r="E231" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F231" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B232" s="2">
-        <v>43590</v>
+        <v>43618</v>
       </c>
       <c r="C232" t="s">
         <v>11</v>
@@ -5774,84 +5789,81 @@
         <v>17</v>
       </c>
       <c r="E232" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F232" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B233" s="2">
-        <v>43582</v>
+        <v>43616</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
         <v>17</v>
       </c>
       <c r="E233" t="s">
-        <v>74</v>
-      </c>
-      <c r="F233" t="s">
-        <v>272</v>
+        <v>73</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B234" s="2">
-        <v>43580</v>
+        <v>43609</v>
       </c>
       <c r="C234" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
         <v>17</v>
       </c>
       <c r="E234" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="F234" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B235" s="2">
-        <v>43574</v>
+        <v>43603</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D235" t="s">
         <v>17</v>
       </c>
       <c r="E235" t="s">
-        <v>74</v>
-      </c>
-      <c r="F235" t="s">
-        <v>273</v>
+        <v>73</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B236" s="2">
-        <v>43567</v>
+        <v>43596</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D236" t="s">
         <v>17</v>
       </c>
       <c r="E236" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F236" t="s">
         <v>274</v>
@@ -5859,19 +5871,19 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B237" s="2">
-        <v>43561</v>
+        <v>43590</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D237" t="s">
         <v>17</v>
       </c>
       <c r="E237" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F237" t="s">
         <v>275</v>
@@ -5879,13 +5891,13 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B238" s="2">
-        <v>43560</v>
+        <v>43582</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D238" t="s">
         <v>17</v>
@@ -5899,296 +5911,296 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B239" s="2">
-        <v>43555</v>
+        <v>43580</v>
       </c>
       <c r="C239" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D239" t="s">
         <v>17</v>
       </c>
       <c r="E239" t="s">
-        <v>75</v>
-      </c>
-      <c r="F239" t="s">
-        <v>277</v>
+        <v>74</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B240" s="2">
-        <v>43542</v>
+        <v>43574</v>
       </c>
       <c r="C240" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D240" t="s">
         <v>17</v>
       </c>
       <c r="E240" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F240" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B241" s="2">
-        <v>43539</v>
+        <v>43567</v>
       </c>
       <c r="C241" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D241" t="s">
         <v>17</v>
       </c>
       <c r="E241" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F241" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B242" s="2">
-        <v>43534</v>
+        <v>43561</v>
       </c>
       <c r="C242" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D242" t="s">
         <v>17</v>
       </c>
       <c r="E242" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F242" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B243" s="2">
-        <v>43526</v>
+        <v>43560</v>
       </c>
       <c r="C243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D243" t="s">
         <v>17</v>
       </c>
       <c r="E243" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F243" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B244" s="2">
-        <v>43465</v>
+        <v>43555</v>
       </c>
       <c r="C244" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D244" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E244" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F244" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B245" s="2">
-        <v>43435</v>
+        <v>43542</v>
       </c>
       <c r="C245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D245" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E245" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F245" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B246" s="2">
-        <v>43434</v>
+        <v>43539</v>
       </c>
       <c r="C246" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E246" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F246" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B247" s="2">
-        <v>43420</v>
+        <v>43534</v>
       </c>
       <c r="C247" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D247" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E247" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F247" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B248" s="2">
-        <v>43410</v>
+        <v>43526</v>
       </c>
       <c r="C248" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D248" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E248" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F248" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B249" s="2">
-        <v>43400</v>
+        <v>43465</v>
       </c>
       <c r="C249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D249" t="s">
         <v>18</v>
       </c>
       <c r="E249" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F249" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B250" s="2">
-        <v>43398</v>
+        <v>43435</v>
       </c>
       <c r="C250" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D250" t="s">
         <v>18</v>
       </c>
       <c r="E250" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F250" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="B251" s="2">
-        <v>43386</v>
+        <v>43434</v>
       </c>
       <c r="C251" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D251" t="s">
         <v>18</v>
       </c>
       <c r="E251" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F251" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B252" s="2">
-        <v>43385</v>
+        <v>43420</v>
       </c>
       <c r="C252" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D252" t="s">
         <v>18</v>
       </c>
       <c r="E252" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="F252" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B253" s="2">
-        <v>43382</v>
+        <v>43410</v>
       </c>
       <c r="C253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D253" t="s">
         <v>18</v>
       </c>
       <c r="E253" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F253" t="s">
         <v>290</v>
@@ -6196,19 +6208,19 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B254" s="2">
-        <v>43373</v>
+        <v>43400</v>
       </c>
       <c r="C254" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D254" t="s">
         <v>18</v>
       </c>
       <c r="E254" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F254" t="s">
         <v>291</v>
@@ -6216,10 +6228,10 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B255" s="2">
-        <v>43365</v>
+        <v>43398</v>
       </c>
       <c r="C255" t="s">
         <v>8</v>
@@ -6228,7 +6240,7 @@
         <v>18</v>
       </c>
       <c r="E255" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F255" t="s">
         <v>292</v>
@@ -6236,56 +6248,153 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1">
-        <v>2</v>
+        <v>261</v>
       </c>
       <c r="B256" s="2">
-        <v>43347</v>
+        <v>43386</v>
       </c>
       <c r="C256" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D256" t="s">
         <v>18</v>
       </c>
       <c r="E256" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="F256" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B257" s="2">
-        <v>43346</v>
+        <v>43385</v>
       </c>
       <c r="C257" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D257" t="s">
         <v>18</v>
       </c>
       <c r="E257" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B258" s="2">
-        <v>43341</v>
+        <v>43382</v>
       </c>
       <c r="C258" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D258" t="s">
         <v>18</v>
       </c>
       <c r="E258" t="s">
+        <v>78</v>
+      </c>
+      <c r="F258" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1">
+        <v>4</v>
+      </c>
+      <c r="B259" s="2">
+        <v>43373</v>
+      </c>
+      <c r="C259" t="s">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s">
+        <v>18</v>
+      </c>
+      <c r="E259" t="s">
+        <v>79</v>
+      </c>
+      <c r="F259" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1">
+        <v>3</v>
+      </c>
+      <c r="B260" s="2">
+        <v>43365</v>
+      </c>
+      <c r="C260" t="s">
+        <v>10</v>
+      </c>
+      <c r="D260" t="s">
+        <v>18</v>
+      </c>
+      <c r="E260" t="s">
+        <v>79</v>
+      </c>
+      <c r="F260" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1">
+        <v>2</v>
+      </c>
+      <c r="B261" s="2">
+        <v>43347</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" t="s">
+        <v>18</v>
+      </c>
+      <c r="E261" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1">
+        <v>1</v>
+      </c>
+      <c r="B262" s="2">
+        <v>43346</v>
+      </c>
+      <c r="C262" t="s">
+        <v>7</v>
+      </c>
+      <c r="D262" t="s">
+        <v>18</v>
+      </c>
+      <c r="E262" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1">
+        <v>0</v>
+      </c>
+      <c r="B263" s="2">
+        <v>43341</v>
+      </c>
+      <c r="C263" t="s">
+        <v>5</v>
+      </c>
+      <c r="D263" t="s">
+        <v>18</v>
+      </c>
+      <c r="E263" t="s">
         <v>80</v>
       </c>
-      <c r="F258" t="s">
-        <v>293</v>
+      <c r="F263" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
